--- a/source/11_Flask/data/ex3_xlwing.xlsx
+++ b/source/11_Flask/data/ex3_xlwing.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AI_\testSourc\11_Flask\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ai_x\source\11_Flask\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5CC1676E-4CF7-4A9A-BD9A-10C5CC33FCF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9578" windowHeight="5805"/>
+    <workbookView xWindow="28680" yWindow="1725" windowWidth="28230" windowHeight="8970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>건축년도</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,13 +40,25 @@
   </si>
   <si>
     <t>예측가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,128,127,808원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,451,271,331원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,785,261,940원</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -368,20 +381,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.899999999999999" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="4.6875" customWidth="1"/>
-    <col min="5" max="5" width="15.75" customWidth="1"/>
+    <col min="1" max="1" width="4.69921875" customWidth="1"/>
+    <col min="5" max="5" width="15.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B2">
         <v>2010</v>
       </c>
@@ -405,8 +418,11 @@
       <c r="D2">
         <v>8</v>
       </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B3">
         <v>2012</v>
       </c>
@@ -416,8 +432,11 @@
       <c r="D3">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.6">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
       <c r="B4">
         <v>2024</v>
       </c>
@@ -426,6 +445,9 @@
       </c>
       <c r="D4">
         <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
